--- a/data/trans_camb/P3A_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.498405473911757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.546753676345245</v>
+        <v>7.546753676345243</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.033341159576899</v>
@@ -664,7 +664,7 @@
         <v>2.727801861162742</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.641967488895839</v>
+        <v>9.641967488895835</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.614392549832117</v>
+        <v>1.601849090778424</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.060806753651911</v>
+        <v>0.9384411599983764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.369842253787879</v>
+        <v>5.494136181207512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.34595712960095</v>
+        <v>2.387332989649091</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9772274963614398</v>
+        <v>1.126843586848369</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.075555851652215</v>
+        <v>8.998971974416284</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.510501031391217</v>
+        <v>2.63397185458522</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.60149594170805</v>
+        <v>1.499806857652581</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.235332886545809</v>
+        <v>8.036700713133401</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.136124314419276</v>
+        <v>4.901809106537847</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.408233967439424</v>
+        <v>4.334373438714252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.23303608177029</v>
+        <v>10.17410380769249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.720571958066475</v>
+        <v>5.792368017243977</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.920484414815532</v>
+        <v>4.899019534404397</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.07001042408156</v>
+        <v>13.29140149414734</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.879918490649469</v>
+        <v>4.998797730111656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.313975630761355</v>
+        <v>4.058557978368951</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.36301079757897</v>
+        <v>11.34828526034464</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.126677916206898</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3.403274926739022</v>
+        <v>3.403274926739021</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.440690191055511</v>
@@ -769,7 +769,7 @@
         <v>1.072427134565466</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3.790710649813228</v>
+        <v>3.790710649813227</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5501479285997357</v>
+        <v>0.537301732433923</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3174215380574528</v>
+        <v>0.2898356164934101</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.784010777441844</v>
+        <v>1.829898250202341</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6606035871481524</v>
+        <v>0.6515460456700739</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2637499946617761</v>
+        <v>0.3118904630664482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.574094160191602</v>
+        <v>2.483376910274897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8708721935831456</v>
+        <v>0.8527674282120341</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5443547478402206</v>
+        <v>0.5124495638949457</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2.687705992307224</v>
+        <v>2.687043234442004</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.370863536963188</v>
+        <v>2.972637104333142</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.687899907691038</v>
+        <v>2.535052608190452</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.206216104917306</v>
+        <v>6.120179078416721</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.604973668842158</v>
+        <v>2.591103268741553</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.194530661561648</v>
+        <v>2.174682343240031</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.288513694519634</v>
+        <v>6.353623902064781</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.343791404203266</v>
+        <v>2.317700440221356</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.041861541114816</v>
+        <v>1.955112398817094</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>5.39666284659783</v>
+        <v>5.55871889366407</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.101222075098447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1170733444447469</v>
+        <v>0.1170733444447465</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.04709782010850691</v>
@@ -878,7 +878,7 @@
         <v>-0.8418244716885398</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.4051462211023888</v>
+        <v>0.4051462211023892</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.379222134854119</v>
+        <v>-1.352410207663758</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.981902441741175</v>
+        <v>-2.059806431695168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8069625790979988</v>
+        <v>-0.8780896187173145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9589792572449848</v>
+        <v>-0.8841696740371454</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.429917143435693</v>
+        <v>-1.343955634134359</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1545220953199136</v>
+        <v>-0.1271842358103721</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9410605145873522</v>
+        <v>-0.8918794149514794</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.447365455707043</v>
+        <v>-1.454145799584044</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.231044977763559</v>
+        <v>-0.2815439020130111</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5603998782629007</v>
+        <v>0.5493570546467026</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1658750486521474</v>
+        <v>-0.209841496549145</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.215850486233296</v>
+        <v>1.171878022883199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9123967232449962</v>
+        <v>1.010932490740424</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3047635093686284</v>
+        <v>0.3925895737893768</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.594452575689796</v>
+        <v>1.598997360211304</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4396675772004371</v>
+        <v>0.5123351213581137</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.2152910599491409</v>
+        <v>-0.2639184495877901</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.069692450712685</v>
+        <v>1.044822797934817</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4753844182482561</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.05053916462423644</v>
+        <v>0.05053916462423629</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02647831874478766</v>
@@ -983,7 +983,7 @@
         <v>-0.4093667622767745</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1970166018679461</v>
+        <v>0.1970166018679463</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4859049544853977</v>
+        <v>-0.4742429937583132</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6863343128326084</v>
+        <v>-0.7086265035313253</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.294537899132574</v>
+        <v>-0.3115346853973987</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4403457270451115</v>
+        <v>-0.4056919760056505</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6301564079197541</v>
+        <v>-0.6126897205465004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08139859613336406</v>
+        <v>-0.06589851917740258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3773730397167874</v>
+        <v>-0.3741159535953353</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6080679682513184</v>
+        <v>-0.6039028220663654</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1092910429546919</v>
+        <v>-0.1205072713904276</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3181889156938972</v>
+        <v>0.3519624789925866</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03680650840237084</v>
+        <v>-0.1145424350977473</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6838450772419272</v>
+        <v>0.6611064808062143</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.658376663327931</v>
+        <v>0.7958117032909579</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2946622803567099</v>
+        <v>0.3373864487852655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.338577025021049</v>
+        <v>1.277537039504558</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2565038635190777</v>
+        <v>0.3179419965087918</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1177514708389321</v>
+        <v>-0.1362811019363628</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6467594396582992</v>
+        <v>0.6042597619209307</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-8.812251612385454</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.75745654231949</v>
+        <v>-5.757456542319492</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.778532935871476</v>
@@ -1083,7 +1083,7 @@
         <v>-3.891136172982615</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.059938196619925</v>
+        <v>-2.059938196619926</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.569126486332914</v>
@@ -1092,7 +1092,7 @@
         <v>-6.501696028488441</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-4.062583901992725</v>
+        <v>-4.062583901992727</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.652379093266736</v>
+        <v>-8.063168804789079</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.30631704289444</v>
+        <v>-12.39229460843118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.386961207565852</v>
+        <v>-9.407397195750047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.663806339698306</v>
+        <v>-4.24834805393002</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.285984413404277</v>
+        <v>-7.059154950304578</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.195691396396017</v>
+        <v>-5.190064713770877</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.212401156216393</v>
+        <v>-5.361919144095167</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.790590566589666</v>
+        <v>-8.806122488939177</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.196857721261825</v>
+        <v>-6.441085682729543</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.01005570303578071</v>
+        <v>-0.1026280884867866</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.463134009007001</v>
+        <v>-5.36327943703206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.054717688899189</v>
+        <v>-2.363776495630078</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.976726870108477</v>
+        <v>3.331542230515296</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.7706542414630789</v>
+        <v>-0.7359211038894331</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7418264099606766</v>
+        <v>0.8204191658733342</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.03309439189390423</v>
+        <v>0.1317436874708964</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.179119677999863</v>
+        <v>-3.783562282999827</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.846977918382349</v>
+        <v>-1.60226141168626</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.6907058516288836</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4512704697049142</v>
+        <v>-0.4512704697049144</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.08959495257495401</v>
@@ -1188,7 +1188,7 @@
         <v>-0.4477988596472408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.237061345165706</v>
+        <v>-0.2370613451657061</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.23624591640543</v>
@@ -1197,7 +1197,7 @@
         <v>-0.5978682422258745</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3735778919434057</v>
+        <v>-0.3735778919434059</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5327233756972428</v>
+        <v>-0.548402055184312</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8227175140622797</v>
+        <v>-0.8196897639617742</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6213353094882025</v>
+        <v>-0.6236593425500201</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4604375426442442</v>
+        <v>-0.4189337708422003</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6756898274991799</v>
+        <v>-0.6769023767760687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4801288396373226</v>
+        <v>-0.4738464888032607</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4352511435851988</v>
+        <v>-0.4482693430865267</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7212802199683631</v>
+        <v>-0.7138868067717407</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5045512427248839</v>
+        <v>-0.5263157054352077</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.001885273123329005</v>
+        <v>0.004951625876299791</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4854401180146788</v>
+        <v>-0.4748954043915652</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1725605092411772</v>
+        <v>-0.2145503241256801</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4457389540613268</v>
+        <v>0.4947988847844115</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.05913706762291365</v>
+        <v>-0.09583887361719479</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1259167572108038</v>
+        <v>0.1268834979522108</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01391407460416759</v>
+        <v>0.01689704598324089</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.4229392932660595</v>
+        <v>-0.4058713074567518</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1929387983610876</v>
+        <v>-0.1754850552712767</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.604087783167112</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5189162618836611</v>
+        <v>0.5189162618836618</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.346275393193364</v>
@@ -1306,7 +1306,7 @@
         <v>-0.8477271647504333</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.619706456744074</v>
+        <v>1.619706456744072</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.260163708097385</v>
+        <v>-1.098664583386174</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.479448947441142</v>
+        <v>-2.509210701221586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4243595515570326</v>
+        <v>-0.4922424738397506</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4782602966406213</v>
+        <v>0.4517870218622123</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9398843859304568</v>
+        <v>-0.9741537607690707</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.763496462431783</v>
+        <v>1.912767390333845</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1074525340033056</v>
+        <v>-0.1044233918959784</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.438482336910265</v>
+        <v>-1.444568207799025</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9604150176081276</v>
+        <v>0.9495768871464308</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6593905458662652</v>
+        <v>0.8543403235434057</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.7803211205798973</v>
+        <v>-0.7902463017463365</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.531710758129238</v>
+        <v>1.5084760772966</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.388490532640638</v>
+        <v>2.435438568041197</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7816568836145619</v>
+        <v>0.746759854294474</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.55572996905575</v>
+        <v>3.532213096316404</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.253589838584149</v>
+        <v>1.24381389287984</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1250257612541353</v>
+        <v>-0.2554590329937576</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.292831142555203</v>
+        <v>2.293943706205406</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3967534271953863</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.128348216032958</v>
+        <v>0.1283482160329581</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4274553601368211</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2361604927050571</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4512190841198915</v>
+        <v>0.4512190841198909</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2741453682031846</v>
+        <v>-0.2457260364128773</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5467598346006924</v>
+        <v>-0.5533404929897426</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.09196752057328882</v>
+        <v>-0.1129513561276341</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1279730238225301</v>
+        <v>0.1136593506275231</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2629975612149435</v>
+        <v>-0.2755262320222725</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4800602507673499</v>
+        <v>0.5286418053064088</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02894281940075456</v>
+        <v>-0.02403067642533017</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3678043313781238</v>
+        <v>-0.3720023036863203</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2485424285230909</v>
+        <v>0.2316501462075358</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1894632752199179</v>
+        <v>0.2413824929456756</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2125243746522188</v>
+        <v>-0.2177437756167943</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4346162417063772</v>
+        <v>0.4201830360410921</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8554854361824212</v>
+        <v>0.8659637299150116</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2943977592434886</v>
+        <v>0.2738817759968351</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.36276573532151</v>
+        <v>1.301900129670839</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3887188443311035</v>
+        <v>0.3829206673208875</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.03742111357301409</v>
+        <v>-0.07345647233884289</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6920959758085307</v>
+        <v>0.7122560681185305</v>
       </c>
     </row>
     <row r="28">
